--- a/biology/Zoologie/Acavidae/Acavidae.xlsx
+++ b/biology/Zoologie/Acavidae/Acavidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acavidae sont une famille de limaces  et autres mollusques gastéropodes pulmonés terrestres de l'ordre des Stylommatophora et de la super-famille des Acavoidea . 
 </t>
@@ -511,7 +523,9 @@
           <t>Genres et espèce compris dans la famille des Acavidae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acavus Montfort, 1810
 Ampelita Beck, 1837
@@ -547,7 +561,9 @@
           <t>Lien interne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Taxonomie des Gastropoda (Bouchet &amp; Rocroi, 2005)</t>
         </is>
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Bouchet &amp; Jean-Pierre Rocroi: Part 2. Working classification of the Gastropoda. Malacologia, 47: 239-283, Ann Arbor 2005,  (ISSN 0076-2997)
 Sur les autres projets Wikimedia :
